--- a/Uebung_SPCundVarianzanalyse/USB.xlsx
+++ b/Uebung_SPCundVarianzanalyse/USB.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuhna\Desktop\NM\2. Semester\DAT\DataScience\Uebung_SPCundVarianzanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammb\Documents\Uni\20_WS_MA\DAT\DataScience\Uebung_SPCundVarianzanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC2CD64-C132-4993-94B1-E59E228E104F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0821B9-6702-4383-B703-7C2376E6D0FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12216" yWindow="1392" windowWidth="9636" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -76,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,10 +366,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -384,7 +393,7 @@
         <v>19.71</v>
       </c>
       <c r="C2">
-        <v>35.99</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="D2">
         <v>17.387</v>
@@ -401,7 +410,7 @@
         <v>19.920000000000002</v>
       </c>
       <c r="C3">
-        <v>36.82</v>
+        <v>18.41</v>
       </c>
       <c r="D3">
         <v>16.96</v>
@@ -418,7 +427,7 @@
         <v>19.5</v>
       </c>
       <c r="C4">
-        <v>37.46</v>
+        <v>18.73</v>
       </c>
       <c r="D4">
         <v>17.638999999999999</v>
@@ -435,7 +444,7 @@
         <v>19.5</v>
       </c>
       <c r="C5">
-        <v>36.840000000000003</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="D5">
         <v>16.648</v>
@@ -452,7 +461,7 @@
         <v>20.34</v>
       </c>
       <c r="C6">
-        <v>36.619999999999997</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="D6">
         <v>18.541</v>
@@ -469,7 +478,7 @@
         <v>19.5</v>
       </c>
       <c r="C7">
-        <v>36.619999999999997</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="D7">
         <v>18.024000000000001</v>
@@ -486,7 +495,7 @@
         <v>19.71</v>
       </c>
       <c r="C8">
-        <v>37.03</v>
+        <v>18.515000000000001</v>
       </c>
       <c r="D8">
         <v>18.553000000000001</v>
@@ -503,7 +512,7 @@
         <v>19.5</v>
       </c>
       <c r="C9">
-        <v>36.24</v>
+        <v>18.12</v>
       </c>
       <c r="D9">
         <v>17.675000000000001</v>
@@ -520,7 +529,7 @@
         <v>19.510000000000002</v>
       </c>
       <c r="C10">
-        <v>35.770000000000003</v>
+        <v>17.885000000000002</v>
       </c>
       <c r="D10">
         <v>18.169</v>
@@ -537,7 +546,7 @@
         <v>19.5</v>
       </c>
       <c r="C11">
-        <v>35.15</v>
+        <v>17.574999999999999</v>
       </c>
       <c r="D11">
         <v>16.747</v>
